--- a/data/trans_orig/P1433-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC0745F0-DA94-4D86-B51E-21364122E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC28D562-5F15-4A3C-8DE6-99B0AE9BF04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F9381886-E4C6-4A9C-AF6B-BA28BDDC27FA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47BBA08C-335D-495C-B93F-F3D486AF8034}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -103,387 +103,393 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>0,37%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
@@ -502,16 +508,10 @@
     <t>99,58%</t>
   </si>
   <si>
-    <t>99,77%</t>
-  </si>
-  <si>
     <t>0,52%</t>
   </si>
   <si>
     <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -941,7 +941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C32139-464D-478B-A341-DA9312FAB6A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7A4DA3-C218-4E7B-AC33-F7A7015CF05F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2092,7 +2092,7 @@
         <v>16</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2176,7 +2176,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>28</v>
@@ -2191,7 +2191,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>28</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2334,7 +2334,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2343,13 +2343,13 @@
         <v>3223</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -2361,10 +2361,10 @@
         <v>33</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,7 +2382,7 @@
         <v>55</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -2394,13 +2394,13 @@
         <v>690630</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M30" s="7">
         <v>1250</v>
@@ -2409,13 +2409,13 @@
         <v>1352521</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,7 +2471,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2489,37 +2489,37 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2534,13 @@
         <v>937</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -2552,10 +2552,10 @@
         <v>18</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -2564,13 +2564,13 @@
         <v>4206</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,10 +2585,10 @@
         <v>778161</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -2603,10 +2603,10 @@
         <v>27</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M34" s="7">
         <v>1468</v>
@@ -2615,10 +2615,10 @@
         <v>1596506</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>58</v>
@@ -2695,7 +2695,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,10 +2743,10 @@
         <v>47</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -2755,13 +2755,13 @@
         <v>10306</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -2770,13 +2770,13 @@
         <v>15075</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,10 +2794,10 @@
         <v>55</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H38" s="7">
         <v>3284</v>
@@ -2806,13 +2806,13 @@
         <v>3542720</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="M38" s="7">
         <v>6488</v>
@@ -2821,13 +2821,13 @@
         <v>6964730</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,7 +2883,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +2907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4631E5C-CC6A-40A4-B931-64E17A98CE75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DD4DB1-6F89-45F5-AB1C-AE631AC22A70}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2924,7 +2924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3037,37 +3037,37 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,7 +3088,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3097,13 +3097,13 @@
         <v>1020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3118,7 +3118,7 @@
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3136,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>28</v>
@@ -3148,10 +3148,10 @@
         <v>287683</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -3166,7 +3166,7 @@
         <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>26</v>
@@ -3372,7 +3372,7 @@
         <v>26</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>28</v>
@@ -3449,7 +3449,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,7 +3500,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,7 +3548,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>28</v>
@@ -3563,7 +3563,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>28</v>
@@ -3578,7 +3578,7 @@
         <v>26</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>28</v>
@@ -3655,7 +3655,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3685,7 +3685,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,7 +3706,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3736,7 +3736,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,7 +3754,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>28</v>
@@ -3769,7 +3769,7 @@
         <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>28</v>
@@ -3784,7 +3784,7 @@
         <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>28</v>
@@ -3876,7 +3876,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,7 +3927,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3975,7 @@
         <v>26</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>28</v>
@@ -3990,7 +3990,7 @@
         <v>26</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>28</v>
@@ -4067,7 +4067,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4097,7 +4097,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,7 +4118,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,7 +4166,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>28</v>
@@ -4181,7 +4181,7 @@
         <v>26</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>28</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4318,7 +4318,7 @@
         <v>2874</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>47</v>
@@ -4339,7 +4339,7 @@
         <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -4348,13 +4348,13 @@
         <v>3894</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,7 +4369,7 @@
         <v>653684</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>135</v>
@@ -4384,10 +4384,10 @@
         <v>690274</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>26</v>
@@ -4399,13 +4399,13 @@
         <v>1343958</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4461,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4479,7 +4479,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4494,7 +4494,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4509,7 +4509,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,7 +4530,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,7 +4578,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>28</v>
@@ -4608,7 +4608,7 @@
         <v>26</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>28</v>
@@ -4685,7 +4685,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4700,7 +4700,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4715,7 +4715,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4730,13 @@
         <v>2874</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -4745,7 +4745,7 @@
         <v>2040</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>15</v>
@@ -4763,10 +4763,10 @@
         <v>50</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4781,13 @@
         <v>3391476</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H38" s="7">
         <v>3336</v>
@@ -4796,10 +4796,10 @@
         <v>3542502</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>26</v>
@@ -4814,10 +4814,10 @@
         <v>58</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4873,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4897,7 +4897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891E08B2-829D-49A4-8C0A-0002AAA832EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437EA020-8515-4268-A9F1-DE881B00FF9C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4914,7 +4914,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5024,7 +5024,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>28</v>
@@ -5054,7 +5054,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>28</v>
@@ -5078,7 +5078,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5129,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,7 +5230,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>28</v>
@@ -5245,7 +5245,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>28</v>
@@ -5260,7 +5260,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>28</v>
@@ -5284,7 +5284,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5436,7 +5436,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>28</v>
@@ -5490,7 +5490,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>28</v>
@@ -5657,7 +5657,7 @@
         <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>28</v>
@@ -5672,7 +5672,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>28</v>
@@ -5696,7 +5696,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5711,7 +5711,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,7 +5747,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5762,7 +5762,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,7 +5848,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>28</v>
@@ -5863,7 +5863,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>28</v>
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5917,7 +5917,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,7 +5953,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,7 +6054,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>28</v>
@@ -6069,7 +6069,7 @@
         <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>28</v>
@@ -6084,7 +6084,7 @@
         <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>28</v>
@@ -6108,7 +6108,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,7 +6159,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6189,7 +6189,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,7 +6245,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6260,7 +6260,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>28</v>
@@ -6275,7 +6275,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>28</v>
@@ -6290,7 +6290,7 @@
         <v>26</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>28</v>
@@ -6314,7 +6314,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,7 +6365,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,7 +6451,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6520,7 +6520,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6672,7 +6672,7 @@
         <v>26</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>28</v>
@@ -6726,7 +6726,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6777,7 +6777,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6863,7 +6863,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1433-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC28D562-5F15-4A3C-8DE6-99B0AE9BF04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55A1F6B0-9702-40FE-B7EE-5E124BDB1D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47BBA08C-335D-495C-B93F-F3D486AF8034}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E090990-860D-45C3-8D91-FA1B6FBCE151}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="170">
   <si>
     <t>Población con diagnóstico de esterilidad en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -103,7 +103,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,14%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -115,7 +115,7 @@
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,86%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -145,19 +145,19 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,68%</t>
+    <t>1,81%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,94%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,32%</t>
+    <t>98,19%</t>
   </si>
   <si>
     <t>99,4%</t>
@@ -166,7 +166,7 @@
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,09%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -250,25 +250,28 @@
     <t>Malaga</t>
   </si>
   <si>
-    <t>0,67%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>99,33%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,75%</t>
+    <t>98,76%</t>
   </si>
   <si>
     <t>99,85%</t>
@@ -277,6 +280,9 @@
     <t>99,7%</t>
   </si>
   <si>
+    <t>99,23%</t>
+  </si>
+  <si>
     <t>99,92%</t>
   </si>
   <si>
@@ -295,22 +301,25 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -319,6 +328,9 @@
     <t>99,74%</t>
   </si>
   <si>
+    <t>99,39%</t>
+  </si>
+  <si>
     <t>0,06%</t>
   </si>
   <si>
@@ -331,148 +343,154 @@
     <t>0,29%</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de esterilidad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
     <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de esterilidad en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
   </si>
   <si>
     <t>99,79%</t>
@@ -941,7 +959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7A4DA3-C218-4E7B-AC33-F7A7015CF05F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271DFFAE-3751-44D4-8BB8-64C82D918A99}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2364,7 +2382,7 @@
         <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,7 +2400,7 @@
         <v>55</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>26</v>
@@ -2394,13 +2412,13 @@
         <v>690630</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M30" s="7">
         <v>1250</v>
@@ -2409,13 +2427,13 @@
         <v>1352521</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,7 +2489,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2489,7 +2507,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2504,7 +2522,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2519,7 +2537,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2552,13 @@
         <v>937</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -2552,10 +2570,10 @@
         <v>18</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -2564,13 +2582,13 @@
         <v>4206</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,10 +2603,10 @@
         <v>778161</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>26</v>
@@ -2603,10 +2621,10 @@
         <v>27</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M34" s="7">
         <v>1468</v>
@@ -2615,10 +2633,10 @@
         <v>1596506</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>58</v>
@@ -2695,7 +2713,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2710,7 +2728,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -2725,7 +2743,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,10 +2761,10 @@
         <v>47</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -2755,13 +2773,13 @@
         <v>10306</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -2770,13 +2788,13 @@
         <v>15075</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,10 +2812,10 @@
         <v>55</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H38" s="7">
         <v>3284</v>
@@ -2806,13 +2824,13 @@
         <v>3542720</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="M38" s="7">
         <v>6488</v>
@@ -2821,10 +2839,10 @@
         <v>6964730</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>91</v>
@@ -2883,7 +2901,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +2925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DD4DB1-6F89-45F5-AB1C-AE631AC22A70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D708E2C-BB57-451E-87B5-5EB54419D91F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2924,7 +2942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3037,7 +3055,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3052,7 +3070,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3067,7 +3085,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3097,13 +3115,13 @@
         <v>1020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3118,7 +3136,7 @@
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3154,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>28</v>
@@ -3148,10 +3166,10 @@
         <v>287683</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>26</v>
@@ -3166,7 +3184,7 @@
         <v>29</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>26</v>
@@ -3372,7 +3390,7 @@
         <v>26</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>28</v>
@@ -3449,7 +3467,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3464,7 +3482,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3479,7 +3497,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,7 +3518,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3515,7 +3533,7 @@
         <v>16</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3530,7 +3548,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,7 +3566,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>28</v>
@@ -3563,7 +3581,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>28</v>
@@ -3578,7 +3596,7 @@
         <v>26</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>28</v>
@@ -3655,7 +3673,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3670,7 +3688,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3685,7 +3703,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,7 +3724,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3721,7 +3739,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3736,7 +3754,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,7 +3772,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>28</v>
@@ -3769,7 +3787,7 @@
         <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>28</v>
@@ -3784,7 +3802,7 @@
         <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>28</v>
@@ -3876,7 +3894,7 @@
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3891,7 +3909,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,7 +3945,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3942,7 +3960,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3993,7 @@
         <v>26</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>28</v>
@@ -3990,7 +4008,7 @@
         <v>26</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>28</v>
@@ -4067,7 +4085,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4097,7 +4115,7 @@
         <v>16</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,7 +4136,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4148,7 +4166,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,7 +4184,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>28</v>
@@ -4196,7 +4214,7 @@
         <v>26</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>28</v>
@@ -4273,7 +4291,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4318,13 +4336,13 @@
         <v>2874</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -4339,7 +4357,7 @@
         <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -4348,13 +4366,13 @@
         <v>3894</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4387,13 @@
         <v>653684</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H30" s="7">
         <v>645</v>
@@ -4384,10 +4402,10 @@
         <v>690274</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>26</v>
@@ -4399,13 +4417,13 @@
         <v>1343958</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4479,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4479,7 +4497,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4494,7 +4512,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -4509,7 +4527,7 @@
         <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,7 +4548,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -4545,7 +4563,7 @@
         <v>16</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -4560,7 +4578,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,7 +4596,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>28</v>
@@ -4593,7 +4611,7 @@
         <v>26</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>28</v>
@@ -4608,7 +4626,7 @@
         <v>26</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>28</v>
@@ -4685,7 +4703,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4700,7 +4718,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4715,7 +4733,7 @@
         <v>16</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,10 +4751,10 @@
         <v>73</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -4745,13 +4763,13 @@
         <v>2040</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -4763,7 +4781,7 @@
         <v>50</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>36</v>
@@ -4781,13 +4799,13 @@
         <v>3391476</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H38" s="7">
         <v>3336</v>
@@ -4796,10 +4814,10 @@
         <v>3542502</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>26</v>
@@ -4817,7 +4835,7 @@
         <v>41</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4891,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4897,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437EA020-8515-4268-A9F1-DE881B00FF9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E8BCA0-0D11-4B6E-9BC5-CE780582364E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4914,7 +4932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5024,7 +5042,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>28</v>
@@ -5054,7 +5072,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>28</v>
@@ -5078,7 +5096,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5108,7 +5126,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5147,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5159,7 +5177,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,7 +5248,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>28</v>
@@ -5245,7 +5263,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>28</v>
@@ -5260,7 +5278,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>28</v>
@@ -5284,7 +5302,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5299,7 +5317,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5314,7 +5332,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,7 +5353,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5350,7 +5368,7 @@
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5365,7 +5383,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,7 +5454,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>28</v>
@@ -5466,7 +5484,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>28</v>
@@ -5490,7 +5508,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5520,7 +5538,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,7 +5559,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5571,7 +5589,7 @@
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,7 +5660,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>28</v>
@@ -5657,7 +5675,7 @@
         <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>28</v>
@@ -5672,7 +5690,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>28</v>
@@ -5696,7 +5714,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5711,7 +5729,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5726,7 +5744,7 @@
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,7 +5765,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5762,7 +5780,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5777,7 +5795,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,7 +5866,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>28</v>
@@ -5863,7 +5881,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>28</v>
@@ -5878,7 +5896,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>28</v>
@@ -5902,7 +5920,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5917,7 +5935,7 @@
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5932,7 +5950,7 @@
         <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,7 +5971,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5968,7 +5986,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5983,7 +6001,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,7 +6072,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>28</v>
@@ -6069,7 +6087,7 @@
         <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>28</v>
@@ -6084,7 +6102,7 @@
         <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>28</v>
@@ -6108,7 +6126,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6123,7 +6141,7 @@
         <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6138,7 +6156,7 @@
         <v>16</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,7 +6177,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6174,7 +6192,7 @@
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -6189,7 +6207,7 @@
         <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,7 +6278,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>28</v>
@@ -6275,7 +6293,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>28</v>
@@ -6290,7 +6308,7 @@
         <v>26</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>28</v>
@@ -6314,7 +6332,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6344,7 +6362,7 @@
         <v>16</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,7 +6383,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6395,7 +6413,7 @@
         <v>16</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,7 +6469,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6466,7 +6484,7 @@
         <v>26</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>28</v>
@@ -6496,7 +6514,7 @@
         <v>26</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>28</v>
@@ -6520,7 +6538,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6550,7 +6568,7 @@
         <v>16</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,7 +6589,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6601,7 +6619,7 @@
         <v>16</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,7 +6690,7 @@
         <v>26</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>28</v>
@@ -6687,7 +6705,7 @@
         <v>26</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>28</v>
@@ -6696,13 +6714,13 @@
         <v>8743</v>
       </c>
       <c r="N36" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>28</v>
@@ -6726,7 +6744,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6741,7 +6759,7 @@
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6756,7 +6774,7 @@
         <v>16</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,7 +6795,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6792,7 +6810,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -6807,7 +6825,7 @@
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,7 +6867,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>28</v>
@@ -6863,7 +6881,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1433-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6050487A-8C36-44BD-9BAC-F81AE173F99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF208AAA-DCEA-49FB-BF47-2EDBBC03EBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A6616F3-7ADE-4F8D-A1C8-AACBE9066A08}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4C6E35FE-4FDE-4E6E-9BED-E36827B00A76}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="141">
   <si>
     <t>Población con diagnóstico de esterilidad en 2012 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -72,27 +72,45 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
@@ -102,21 +120,12 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
     <t>98,87%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -159,156 +168,168 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
     <t>0,14%</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,28%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>99,93%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
     <t>0,05%</t>
   </si>
   <si>
@@ -427,12 +448,6 @@
   </si>
   <si>
     <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
   </si>
   <si>
     <t>0,03%</t>
@@ -856,7 +871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA4F624-050A-43F5-B3DA-40F06A0485AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E595B48-5DB8-4EE7-9BDB-5B39F4E9D49F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -976,86 +991,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D5" s="7">
+        <v>294738</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I5" s="7">
+        <v>287245</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N5" s="7">
+        <v>581983</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1064,48 +1091,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1117,13 +1150,13 @@
         <v>1841</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1132,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -1147,19 +1180,19 @@
         <v>1841</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>470</v>
@@ -1171,10 +1204,10 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -1183,13 +1216,13 @@
         <v>522656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>949</v>
@@ -1198,13 +1231,13 @@
         <v>1026343</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1219,13 +1252,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>479</v>
@@ -1234,13 +1267,13 @@
         <v>522656</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>951</v>
@@ -1249,18 +1282,18 @@
         <v>1028184</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1272,13 +1305,13 @@
         <v>1094</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1287,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1302,19 +1335,19 @@
         <v>1094</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>318</v>
@@ -1323,13 +1356,13 @@
         <v>322952</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
         <v>317</v>
@@ -1338,13 +1371,13 @@
         <v>341020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -1353,13 +1386,13 @@
         <v>663972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1374,13 +1407,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -1389,13 +1422,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -1404,18 +1437,18 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1427,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1442,13 +1475,13 @@
         <v>3815</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1457,64 +1490,64 @@
         <v>3815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D14" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>623</v>
+        <v>367</v>
       </c>
       <c r="I14" s="7">
-        <v>672381</v>
+        <v>385136</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
-        <v>1249</v>
+        <v>711</v>
       </c>
       <c r="N14" s="7">
-        <v>1341101</v>
+        <v>759118</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1523,54 +1556,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1582,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1597,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1612,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>196</v>
@@ -1633,13 +1666,13 @@
         <v>212618</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
         <v>212</v>
@@ -1648,13 +1681,13 @@
         <v>219591</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>408</v>
@@ -1663,13 +1696,13 @@
         <v>432209</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,13 +1717,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -1699,13 +1732,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -1714,18 +1747,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1737,49 +1770,49 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>261</v>
@@ -1788,13 +1821,13 @@
         <v>273981</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
         <v>268</v>
@@ -1803,13 +1836,13 @@
         <v>278096</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
         <v>529</v>
@@ -1818,13 +1851,13 @@
         <v>552077</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,13 +1872,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -1854,13 +1887,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -1869,18 +1902,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1892,13 +1925,13 @@
         <v>897</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -1907,13 +1940,13 @@
         <v>3223</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -1922,19 +1955,19 @@
         <v>4120</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>617</v>
@@ -1943,13 +1976,13 @@
         <v>661891</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7">
         <v>633</v>
@@ -1958,13 +1991,13 @@
         <v>690630</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M23" s="7">
         <v>1250</v>
@@ -1973,13 +2006,13 @@
         <v>1352521</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,13 +2027,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2009,13 +2042,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2024,18 +2057,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2047,13 +2080,13 @@
         <v>937</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2062,13 +2095,13 @@
         <v>3269</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2077,19 +2110,19 @@
         <v>4206</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
         <v>716</v>
@@ -2098,13 +2131,13 @@
         <v>778161</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H26" s="7">
         <v>752</v>
@@ -2113,28 +2146,28 @@
         <v>818345</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="M26" s="7">
         <v>1468</v>
       </c>
       <c r="N26" s="7">
-        <v>1596506</v>
+        <v>1596507</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2182,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -2164,28 +2197,28 @@
         <v>821614</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>1472</v>
       </c>
       <c r="N27" s="7">
-        <v>1600712</v>
+        <v>1600713</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2235,13 @@
         <v>4769</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -2217,13 +2250,13 @@
         <v>10306</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -2232,19 +2265,19 @@
         <v>15075</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>3204</v>
@@ -2253,13 +2286,13 @@
         <v>3422010</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H29" s="7">
         <v>3284</v>
@@ -2268,13 +2301,13 @@
         <v>3542720</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="M29" s="7">
         <v>6488</v>
@@ -2283,13 +2316,13 @@
         <v>6964730</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2337,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H30" s="7">
         <v>3294</v>
@@ -2319,13 +2352,13 @@
         <v>3553026</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
         <v>6503</v>
@@ -2334,18 +2367,18 @@
         <v>6979805</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2369,7 +2402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880ABF2A-A116-4E74-B3E2-0C59A67BFCE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1354A2E2-AD1C-4A50-A7CC-A468AB30CD57}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2386,7 +2419,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2493,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2508,13 +2541,13 @@
         <v>1020</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2523,19 +2556,19 @@
         <v>1020</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>266</v>
@@ -2544,13 +2577,13 @@
         <v>293761</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>276</v>
@@ -2559,13 +2592,13 @@
         <v>287683</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
         <v>542</v>
@@ -2574,13 +2607,13 @@
         <v>581444</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2628,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -2610,13 +2643,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -2625,18 +2658,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2648,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2663,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2678,19 +2711,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>475</v>
@@ -2699,13 +2732,13 @@
         <v>502575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>484</v>
@@ -2714,13 +2747,13 @@
         <v>523084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>959</v>
@@ -2729,13 +2762,13 @@
         <v>1025659</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2783,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -2765,13 +2798,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -2780,18 +2813,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2803,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2818,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2833,19 +2866,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>335</v>
@@ -2854,13 +2887,13 @@
         <v>318565</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>332</v>
@@ -2869,13 +2902,13 @@
         <v>336309</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>667</v>
@@ -2884,13 +2917,13 @@
         <v>654874</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2938,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -2920,13 +2953,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -2935,18 +2968,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2958,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2973,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2988,19 +3021,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>354</v>
@@ -3009,13 +3042,13 @@
         <v>369964</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>358</v>
@@ -3024,13 +3057,13 @@
         <v>387283</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>712</v>
@@ -3039,13 +3072,13 @@
         <v>757247</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3093,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3075,13 +3108,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3090,18 +3123,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3113,13 +3146,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3128,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3143,19 +3176,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>212</v>
@@ -3164,13 +3197,13 @@
         <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
         <v>223</v>
@@ -3179,13 +3212,13 @@
         <v>218587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>435</v>
@@ -3194,13 +3227,13 @@
         <v>429808</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3248,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -3230,13 +3263,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -3245,18 +3278,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3268,13 +3301,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3283,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3298,19 +3331,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>259</v>
@@ -3319,13 +3352,13 @@
         <v>263123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
         <v>263</v>
@@ -3334,13 +3367,13 @@
         <v>273115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
         <v>522</v>
@@ -3349,13 +3382,13 @@
         <v>536238</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3403,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -3385,13 +3418,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -3400,18 +3433,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3423,13 +3456,13 @@
         <v>2874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3438,13 +3471,13 @@
         <v>1020</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -3453,19 +3486,19 @@
         <v>3894</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>577</v>
@@ -3474,13 +3507,13 @@
         <v>653684</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="H23" s="7">
         <v>645</v>
@@ -3489,13 +3522,13 @@
         <v>690274</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M23" s="7">
         <v>1222</v>
@@ -3504,13 +3537,13 @@
         <v>1343958</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3558,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -3540,13 +3573,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -3555,18 +3588,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3578,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3593,13 +3626,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3608,19 +3641,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7">
         <v>750</v>
@@ -3629,13 +3662,13 @@
         <v>778583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H26" s="7">
         <v>755</v>
@@ -3644,13 +3677,13 @@
         <v>826167</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M26" s="7">
         <v>1505</v>
@@ -3659,13 +3692,13 @@
         <v>1604750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3713,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -3695,13 +3728,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -3710,13 +3743,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3766,13 @@
         <v>2874</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3748,13 +3781,13 @@
         <v>2040</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -3763,19 +3796,19 @@
         <v>4914</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>3228</v>
@@ -3784,13 +3817,13 @@
         <v>3391476</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>3336</v>
@@ -3799,13 +3832,13 @@
         <v>3542502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M29" s="7">
         <v>6564</v>
@@ -3814,13 +3847,13 @@
         <v>6933978</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3868,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -3850,13 +3883,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -3865,18 +3898,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
